--- a/0. Create/SE_ThanhPC_HoaDNT_SU21SE45/Test_Case/Report5_Emotion_Classification_Test_Case.xlsx
+++ b/0. Create/SE_ThanhPC_HoaDNT_SU21SE45/Test_Case/Report5_Emotion_Classification_Test_Case.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mrngochuu/Desktop/Capstone/Document/Capstone-document/0. Create/HuuDN/Testcase/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FPT\CAPSTONE\Capstone-doc\Capstone-document\0. Create\SE_ThanhPC_HoaDNT_SU21SE45\Test_Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA59D8C4-86CF-EC47-8DCC-BDDDA6FB93B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{D760AEED-29B5-FE4C-8016-38192F2F209E}"/>
+    <workbookView xWindow="0" yWindow="504" windowWidth="28800" windowHeight="16236"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -734,7 +733,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1179,23 +1178,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA2125E9-FC08-E24A-A3AF-663399C1C70D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="14.296875" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="29.1640625" customWidth="1"/>
+    <col min="3" max="3" width="29.19921875" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" customWidth="1"/>
+    <col min="5" max="5" width="17.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1212,7 +1209,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1227,7 +1224,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1242,7 +1239,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1257,7 +1254,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1272,7 +1269,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1286,7 +1283,7 @@
         <v>0.84889999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1300,7 +1297,7 @@
         <v>0.84889999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1314,7 +1311,7 @@
         <v>0.84889999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1328,7 +1325,7 @@
         <v>0.84889999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1342,7 +1339,7 @@
         <v>0.84889999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1356,7 +1353,7 @@
         <v>0.84889999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1370,7 +1367,7 @@
         <v>0.84889999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1380,33 +1377,31 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B15" r:id="rId1" xr:uid="{539D8973-D6C0-DA4B-A20C-DCDF5B1E9907}"/>
-    <hyperlink ref="B2" location="'Test_1.1 (Light-40cm)'!A1" display="Light - Distance 40cm" xr:uid="{2366AD8F-6B55-7E44-90E8-5F5B75745A6D}"/>
-    <hyperlink ref="B3" location="'Test_1.2 (Light-60cm)'!A1" display="Light - Distance 60cm" xr:uid="{C083772D-B1D7-554E-AC19-4E2DAB7583B7}"/>
-    <hyperlink ref="B4" location="'Test_2.1 (Dark-40cm)'!A1" display="Dark - Distance 40cm" xr:uid="{334C6DC8-FB9F-904F-AA5B-BB41660DFFCC}"/>
-    <hyperlink ref="B5" location="'Test_2.2 (Dark-60cm)'!A1" display="Dark - Distance 60cm" xr:uid="{80C3A493-D1DC-384F-BC39-810F70B9DBB8}"/>
+    <hyperlink ref="B15" r:id="rId1"/>
+    <hyperlink ref="B2" location="'Test_1.1 (Light-40cm)'!A1" display="Light - Distance 40cm"/>
+    <hyperlink ref="B3" location="'Test_1.2 (Light-60cm)'!A1" display="Light - Distance 60cm"/>
+    <hyperlink ref="B4" location="'Test_2.1 (Dark-40cm)'!A1" display="Dark - Distance 40cm"/>
+    <hyperlink ref="B5" location="'Test_2.2 (Dark-60cm)'!A1" display="Dark - Distance 60cm"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1385A86-33B2-214E-9913-5D84C4CF633A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.5" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" customWidth="1"/>
+    <col min="2" max="2" width="18.796875" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -1417,7 +1412,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1428,7 +1423,7 @@
         <v>4047</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1439,7 +1434,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1450,7 +1445,7 @@
         <v>4070</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1461,7 +1456,7 @@
         <v>7271</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1472,7 +1467,7 @@
         <v>4976</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1483,7 +1478,7 @@
         <v>4856</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1494,7 +1489,7 @@
         <v>3206</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
@@ -1502,7 +1497,7 @@
         <v>0.84889999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1510,7 +1505,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -1520,29 +1515,29 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B13" r:id="rId1" xr:uid="{39E8D8E5-2044-604C-826E-7C1D9EB896C4}"/>
-    <hyperlink ref="B14" r:id="rId2" xr:uid="{42DCAE53-E871-9346-B841-66630178659E}"/>
+    <hyperlink ref="B13" r:id="rId1"/>
+    <hyperlink ref="B14" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8F19AF6-4812-2A41-A040-B770A61D9FAE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" customWidth="1"/>
-    <col min="19" max="19" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.796875" customWidth="1"/>
+    <col min="19" max="19" width="12.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>27</v>
       </c>
@@ -1571,7 +1566,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="16"/>
       <c r="B2" s="16"/>
       <c r="C2" s="7" t="s">
@@ -1618,7 +1613,7 @@
       </c>
       <c r="Q2" s="15"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -1679,7 +1674,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -1739,7 +1734,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -1793,7 +1788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -1847,7 +1842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -1901,7 +1896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -1955,7 +1950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -2009,7 +2004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -2063,7 +2058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -2117,7 +2112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -2171,7 +2166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>11</v>
       </c>
@@ -2225,7 +2220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -2279,7 +2274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>13</v>
       </c>
@@ -2333,7 +2328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>14</v>
       </c>
@@ -2387,7 +2382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>15</v>
       </c>
@@ -2441,7 +2436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>16</v>
       </c>
@@ -2495,7 +2490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>17</v>
       </c>
@@ -2549,7 +2544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>18</v>
       </c>
@@ -2603,7 +2598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>19</v>
       </c>
@@ -2657,7 +2652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>20</v>
       </c>
@@ -2711,7 +2706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>21</v>
       </c>
@@ -2765,7 +2760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>22</v>
       </c>
@@ -2819,7 +2814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>23</v>
       </c>
@@ -2873,7 +2868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>24</v>
       </c>
@@ -2927,7 +2922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>25</v>
       </c>
@@ -2981,7 +2976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>26</v>
       </c>
@@ -3035,7 +3030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>27</v>
       </c>
@@ -3089,7 +3084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>28</v>
       </c>
@@ -3143,7 +3138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>29</v>
       </c>
@@ -3197,7 +3192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>30</v>
       </c>
@@ -3251,7 +3246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>31</v>
       </c>
@@ -3305,7 +3300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>32</v>
       </c>
@@ -3359,7 +3354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>33</v>
       </c>
@@ -3413,7 +3408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>34</v>
       </c>
@@ -3467,7 +3462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>35</v>
       </c>
@@ -3521,7 +3516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>36</v>
       </c>
@@ -3575,7 +3570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>37</v>
       </c>
@@ -3629,7 +3624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>38</v>
       </c>
@@ -3683,7 +3678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>39</v>
       </c>
@@ -3737,7 +3732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>40</v>
       </c>
@@ -3791,7 +3786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>41</v>
       </c>
@@ -3845,7 +3840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>42</v>
       </c>
@@ -3899,7 +3894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>43</v>
       </c>
@@ -3953,7 +3948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>44</v>
       </c>
@@ -4007,7 +4002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>45</v>
       </c>
@@ -4061,7 +4056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>46</v>
       </c>
@@ -4115,7 +4110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>47</v>
       </c>
@@ -4169,7 +4164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>48</v>
       </c>
@@ -4223,7 +4218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>49</v>
       </c>
@@ -4277,7 +4272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
         <v>50</v>
       </c>
@@ -4340,32 +4335,32 @@
     <mergeCell ref="B1:B2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B12" r:id="rId1" xr:uid="{E54959C4-3244-7E40-AA67-B30530E9B803}"/>
-    <hyperlink ref="B11" r:id="rId2" xr:uid="{7F56D6FB-65D0-B84C-A1F0-B07C92DDB72C}"/>
-    <hyperlink ref="B10" r:id="rId3" xr:uid="{D0F063C2-2574-A44D-B791-9D3EA75B4653}"/>
-    <hyperlink ref="B9" r:id="rId4" xr:uid="{DDBE6626-CC9C-F046-A67C-8EAAA72C264B}"/>
-    <hyperlink ref="T4" r:id="rId5" xr:uid="{D5B93D1E-A383-FA43-BD70-62E8546317C0}"/>
+    <hyperlink ref="B12" r:id="rId1"/>
+    <hyperlink ref="B11" r:id="rId2"/>
+    <hyperlink ref="B10" r:id="rId3"/>
+    <hyperlink ref="B9" r:id="rId4"/>
+    <hyperlink ref="T4" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1C4EAD2-A571-3242-A085-CBDC947BDACD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S38" sqref="S38"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" customWidth="1"/>
-    <col min="19" max="19" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.796875" customWidth="1"/>
+    <col min="19" max="19" width="12.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>27</v>
       </c>
@@ -4394,7 +4389,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="16"/>
       <c r="B2" s="16"/>
       <c r="C2" s="7" t="s">
@@ -4441,7 +4436,7 @@
       </c>
       <c r="Q2" s="15"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -4502,7 +4497,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -4562,7 +4557,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -4616,7 +4611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -4670,7 +4665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -4724,7 +4719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -4778,7 +4773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -4832,7 +4827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -4886,7 +4881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -4940,7 +4935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -4994,7 +4989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>11</v>
       </c>
@@ -5048,7 +5043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -5102,7 +5097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>13</v>
       </c>
@@ -5156,7 +5151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>14</v>
       </c>
@@ -5210,7 +5205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>15</v>
       </c>
@@ -5264,7 +5259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>16</v>
       </c>
@@ -5318,7 +5313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>17</v>
       </c>
@@ -5372,7 +5367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>18</v>
       </c>
@@ -5426,7 +5421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>19</v>
       </c>
@@ -5480,7 +5475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>20</v>
       </c>
@@ -5534,7 +5529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>21</v>
       </c>
@@ -5588,7 +5583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>22</v>
       </c>
@@ -5642,7 +5637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>23</v>
       </c>
@@ -5696,7 +5691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>24</v>
       </c>
@@ -5750,7 +5745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>25</v>
       </c>
@@ -5804,7 +5799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>26</v>
       </c>
@@ -5858,7 +5853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>27</v>
       </c>
@@ -5912,7 +5907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>28</v>
       </c>
@@ -5966,7 +5961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>29</v>
       </c>
@@ -6020,7 +6015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>30</v>
       </c>
@@ -6074,7 +6069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>31</v>
       </c>
@@ -6128,7 +6123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>32</v>
       </c>
@@ -6182,7 +6177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>33</v>
       </c>
@@ -6236,7 +6231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>34</v>
       </c>
@@ -6290,7 +6285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>35</v>
       </c>
@@ -6344,7 +6339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>36</v>
       </c>
@@ -6398,7 +6393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>37</v>
       </c>
@@ -6452,7 +6447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>38</v>
       </c>
@@ -6506,7 +6501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>39</v>
       </c>
@@ -6560,7 +6555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>40</v>
       </c>
@@ -6614,7 +6609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>41</v>
       </c>
@@ -6668,7 +6663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>42</v>
       </c>
@@ -6722,7 +6717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>43</v>
       </c>
@@ -6776,7 +6771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>44</v>
       </c>
@@ -6830,7 +6825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>45</v>
       </c>
@@ -6884,7 +6879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>46</v>
       </c>
@@ -6938,7 +6933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>47</v>
       </c>
@@ -6992,7 +6987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>48</v>
       </c>
@@ -7046,7 +7041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>49</v>
       </c>
@@ -7100,7 +7095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
         <v>50</v>
       </c>
@@ -7163,30 +7158,30 @@
     <mergeCell ref="B1:B2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="T4" r:id="rId1" xr:uid="{F99C582A-8F7A-DB46-8E2D-C5F3C0033172}"/>
-    <hyperlink ref="B29" r:id="rId2" xr:uid="{F6EDE838-1A14-994F-AEA6-D6CB86C807A4}"/>
-    <hyperlink ref="B38" r:id="rId3" xr:uid="{241D2E0A-BD9F-0442-A790-B6F196125677}"/>
+    <hyperlink ref="T4" r:id="rId1"/>
+    <hyperlink ref="B29" r:id="rId2"/>
+    <hyperlink ref="B38" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CDB6869-C278-884B-A7D6-D3B10DD52AA9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S46" sqref="S46"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" customWidth="1"/>
-    <col min="19" max="19" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.796875" customWidth="1"/>
+    <col min="19" max="19" width="12.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>27</v>
       </c>
@@ -7215,7 +7210,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="16"/>
       <c r="B2" s="16"/>
       <c r="C2" s="7" t="s">
@@ -7262,7 +7257,7 @@
       </c>
       <c r="Q2" s="15"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -7323,7 +7318,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -7383,7 +7378,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -7437,7 +7432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -7491,7 +7486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -7545,7 +7540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -7599,7 +7594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -7653,7 +7648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -7707,7 +7702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -7761,7 +7756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -7815,7 +7810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>11</v>
       </c>
@@ -7869,7 +7864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -7923,7 +7918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>13</v>
       </c>
@@ -7977,7 +7972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>14</v>
       </c>
@@ -8031,7 +8026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>15</v>
       </c>
@@ -8085,7 +8080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>16</v>
       </c>
@@ -8139,7 +8134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>17</v>
       </c>
@@ -8193,7 +8188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>18</v>
       </c>
@@ -8247,7 +8242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>19</v>
       </c>
@@ -8301,7 +8296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>20</v>
       </c>
@@ -8355,7 +8350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>21</v>
       </c>
@@ -8409,7 +8404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>22</v>
       </c>
@@ -8463,7 +8458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>23</v>
       </c>
@@ -8517,7 +8512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>24</v>
       </c>
@@ -8571,7 +8566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>25</v>
       </c>
@@ -8625,7 +8620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>26</v>
       </c>
@@ -8679,7 +8674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>27</v>
       </c>
@@ -8733,7 +8728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>28</v>
       </c>
@@ -8787,7 +8782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>29</v>
       </c>
@@ -8841,7 +8836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>30</v>
       </c>
@@ -8895,7 +8890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>31</v>
       </c>
@@ -8949,7 +8944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>32</v>
       </c>
@@ -9003,7 +8998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>33</v>
       </c>
@@ -9057,7 +9052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>34</v>
       </c>
@@ -9111,7 +9106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>35</v>
       </c>
@@ -9165,7 +9160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>36</v>
       </c>
@@ -9219,7 +9214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>37</v>
       </c>
@@ -9273,7 +9268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>38</v>
       </c>
@@ -9327,7 +9322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>39</v>
       </c>
@@ -9381,7 +9376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>40</v>
       </c>
@@ -9435,7 +9430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>41</v>
       </c>
@@ -9489,7 +9484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>42</v>
       </c>
@@ -9543,7 +9538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>43</v>
       </c>
@@ -9597,7 +9592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>44</v>
       </c>
@@ -9651,7 +9646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>45</v>
       </c>
@@ -9705,7 +9700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>46</v>
       </c>
@@ -9759,7 +9754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>47</v>
       </c>
@@ -9813,7 +9808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>48</v>
       </c>
@@ -9867,7 +9862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>49</v>
       </c>
@@ -9921,7 +9916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
         <v>50</v>
       </c>
@@ -9984,28 +9979,28 @@
     <mergeCell ref="B1:B2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="T4" r:id="rId1" xr:uid="{7678E74D-F81E-0948-8D1C-195CF0100477}"/>
+    <hyperlink ref="T4" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD588212-40A7-D740-BF5E-2A5AFCB3C866}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S36" sqref="S36"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" customWidth="1"/>
-    <col min="19" max="19" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.796875" customWidth="1"/>
+    <col min="19" max="19" width="12.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>27</v>
       </c>
@@ -10034,7 +10029,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="16"/>
       <c r="B2" s="16"/>
       <c r="C2" s="7" t="s">
@@ -10081,7 +10076,7 @@
       </c>
       <c r="Q2" s="15"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -10142,7 +10137,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -10202,7 +10197,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -10256,7 +10251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -10310,7 +10305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -10364,7 +10359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -10418,7 +10413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -10472,7 +10467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -10526,7 +10521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -10580,7 +10575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -10634,7 +10629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>11</v>
       </c>
@@ -10688,7 +10683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -10742,7 +10737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>13</v>
       </c>
@@ -10796,7 +10791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>14</v>
       </c>
@@ -10850,7 +10845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>15</v>
       </c>
@@ -10904,7 +10899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>16</v>
       </c>
@@ -10958,7 +10953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>17</v>
       </c>
@@ -11012,7 +11007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>18</v>
       </c>
@@ -11066,7 +11061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>19</v>
       </c>
@@ -11120,7 +11115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>20</v>
       </c>
@@ -11174,7 +11169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>21</v>
       </c>
@@ -11228,7 +11223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>22</v>
       </c>
@@ -11282,7 +11277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>23</v>
       </c>
@@ -11336,7 +11331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>24</v>
       </c>
@@ -11390,7 +11385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>25</v>
       </c>
@@ -11444,7 +11439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>26</v>
       </c>
@@ -11498,7 +11493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>27</v>
       </c>
@@ -11552,7 +11547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>28</v>
       </c>
@@ -11606,7 +11601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>29</v>
       </c>
@@ -11660,7 +11655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>30</v>
       </c>
@@ -11714,7 +11709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>31</v>
       </c>
@@ -11768,7 +11763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>32</v>
       </c>
@@ -11822,7 +11817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>33</v>
       </c>
@@ -11876,7 +11871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>34</v>
       </c>
@@ -11930,7 +11925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>35</v>
       </c>
@@ -11984,7 +11979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>36</v>
       </c>
@@ -12038,7 +12033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>37</v>
       </c>
@@ -12092,7 +12087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>38</v>
       </c>
@@ -12146,7 +12141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>39</v>
       </c>
@@ -12200,7 +12195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>40</v>
       </c>
@@ -12254,7 +12249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>41</v>
       </c>
@@ -12308,7 +12303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>42</v>
       </c>
@@ -12362,7 +12357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>43</v>
       </c>
@@ -12416,7 +12411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>44</v>
       </c>
@@ -12470,7 +12465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>45</v>
       </c>
@@ -12524,7 +12519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>46</v>
       </c>
@@ -12578,7 +12573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>47</v>
       </c>
@@ -12632,7 +12627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>48</v>
       </c>
@@ -12686,7 +12681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>49</v>
       </c>
@@ -12740,7 +12735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
         <v>50</v>
       </c>
